--- a/grupos/3AEM - Estadisticos 20211.xlsx
+++ b/grupos/3AEM - Estadisticos 20211.xlsx
@@ -191,10 +191,10 @@
     <t>Rodríguez Román Leticia</t>
   </si>
   <si>
+    <t>Torres Sánchez José Luis</t>
+  </si>
+  <si>
     <t>Castro Vasquez Julieta</t>
-  </si>
-  <si>
-    <t>Torres Sánchez José Luis</t>
   </si>
   <si>
     <t>Rivera Cruz Ezequiel</t>
@@ -965,7 +965,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -980,7 +980,7 @@
         <v>-1</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>-1</v>
@@ -1019,7 +1019,7 @@
         <v>-1</v>
       </c>
       <c r="T4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U4">
         <v>-1</v>
@@ -1034,7 +1034,7 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1288,7 +1288,7 @@
         <v>-1</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <v>-1</v>
@@ -1342,7 +1342,7 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1350,7 +1350,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>-1</v>
@@ -1365,7 +1365,7 @@
         <v>-1</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H9">
         <v>-1</v>
@@ -1404,7 +1404,7 @@
         <v>-1</v>
       </c>
       <c r="T9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U9">
         <v>-1</v>
@@ -1419,7 +1419,7 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1442,7 +1442,7 @@
         <v>-1</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>-1</v>
@@ -1496,7 +1496,7 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1519,7 +1519,7 @@
         <v>-1</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>-1</v>
@@ -1573,7 +1573,7 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1904,7 +1904,7 @@
         <v>-1</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H16">
         <v>-1</v>
@@ -1958,7 +1958,7 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1981,7 +1981,7 @@
         <v>-1</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H17">
         <v>-1</v>
@@ -2035,7 +2035,7 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2058,7 +2058,7 @@
         <v>-1</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H18">
         <v>-1</v>
@@ -2112,7 +2112,7 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2197,7 +2197,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>-1</v>
@@ -2251,7 +2251,7 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U20">
         <v>-1</v>
@@ -2289,7 +2289,7 @@
         <v>-1</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H21">
         <v>-1</v>
@@ -2343,7 +2343,7 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2905,7 +2905,7 @@
         <v>-1</v>
       </c>
       <c r="G29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H29">
         <v>-1</v>
@@ -2959,7 +2959,7 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -2982,7 +2982,7 @@
         <v>-1</v>
       </c>
       <c r="G30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H30">
         <v>-1</v>
@@ -3036,7 +3036,7 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -3059,7 +3059,7 @@
         <v>-1</v>
       </c>
       <c r="G31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H31">
         <v>-1</v>
@@ -3113,7 +3113,7 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -3136,7 +3136,7 @@
         <v>-1</v>
       </c>
       <c r="G32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H32">
         <v>-1</v>
@@ -3190,7 +3190,7 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -3521,7 +3521,7 @@
         <v>-1</v>
       </c>
       <c r="G37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H37">
         <v>-1</v>
@@ -3575,7 +3575,7 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -3740,7 +3740,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -3769,10 +3769,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>35</v>
@@ -3798,7 +3798,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -3807,22 +3807,25 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <v>8.9</v>
+      </c>
       <c r="I5">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3836,25 +3839,25 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>42.86</v>
+        <v>51.43</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J6">
-        <v>57.14</v>
+        <v>48.57</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3983,7 +3986,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4023,7 +4026,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4043,7 +4046,7 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4103,7 +4106,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4143,7 +4146,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4163,7 +4166,7 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4223,7 +4226,7 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4263,7 +4266,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4283,7 +4286,7 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4343,7 +4346,7 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4383,7 +4386,7 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4403,7 +4406,7 @@
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4463,7 +4466,7 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4503,7 +4506,7 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4523,7 +4526,7 @@
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4583,7 +4586,7 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4623,7 +4626,7 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4643,7 +4646,7 @@
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4703,7 +4706,7 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4743,7 +4746,7 @@
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4763,7 +4766,7 @@
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4823,7 +4826,7 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4863,7 +4866,7 @@
         <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4883,7 +4886,7 @@
         <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4943,7 +4946,7 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4983,7 +4986,7 @@
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5003,7 +5006,7 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5063,7 +5066,7 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5103,7 +5106,7 @@
         <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5123,7 +5126,7 @@
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5183,7 +5186,7 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5223,7 +5226,7 @@
         <v>8</v>
       </c>
       <c r="F66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5243,7 +5246,7 @@
         <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5303,7 +5306,7 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5343,7 +5346,7 @@
         <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5363,7 +5366,7 @@
         <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5423,7 +5426,7 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5463,7 +5466,7 @@
         <v>8</v>
       </c>
       <c r="F78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5483,7 +5486,7 @@
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5543,7 +5546,7 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5583,7 +5586,7 @@
         <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5603,7 +5606,7 @@
         <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5663,7 +5666,7 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5703,7 +5706,7 @@
         <v>8</v>
       </c>
       <c r="F90" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5723,7 +5726,7 @@
         <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5783,7 +5786,7 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5823,7 +5826,7 @@
         <v>8</v>
       </c>
       <c r="F96" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5843,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5903,7 +5906,7 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5943,7 +5946,7 @@
         <v>8</v>
       </c>
       <c r="F102" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5963,7 +5966,7 @@
         <v>9</v>
       </c>
       <c r="F103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -6023,7 +6026,7 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -6063,7 +6066,7 @@
         <v>8</v>
       </c>
       <c r="F108" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6083,7 +6086,7 @@
         <v>9</v>
       </c>
       <c r="F109" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -6143,7 +6146,7 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6183,7 +6186,7 @@
         <v>8</v>
       </c>
       <c r="F114" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6203,7 +6206,7 @@
         <v>9</v>
       </c>
       <c r="F115" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -6263,7 +6266,7 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -6303,7 +6306,7 @@
         <v>8</v>
       </c>
       <c r="F120" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6323,7 +6326,7 @@
         <v>9</v>
       </c>
       <c r="F121" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6383,7 +6386,7 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6423,7 +6426,7 @@
         <v>8</v>
       </c>
       <c r="F126" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6443,7 +6446,7 @@
         <v>9</v>
       </c>
       <c r="F127" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6503,7 +6506,7 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6543,7 +6546,7 @@
         <v>8</v>
       </c>
       <c r="F132" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6563,7 +6566,7 @@
         <v>9</v>
       </c>
       <c r="F133" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6623,7 +6626,7 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6663,7 +6666,7 @@
         <v>8</v>
       </c>
       <c r="F138" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6683,7 +6686,7 @@
         <v>9</v>
       </c>
       <c r="F139" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6743,7 +6746,7 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -6783,7 +6786,7 @@
         <v>8</v>
       </c>
       <c r="F144" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -6803,7 +6806,7 @@
         <v>9</v>
       </c>
       <c r="F145" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -6863,7 +6866,7 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -6903,7 +6906,7 @@
         <v>8</v>
       </c>
       <c r="F150" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -6923,7 +6926,7 @@
         <v>9</v>
       </c>
       <c r="F151" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -6983,7 +6986,7 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -7023,7 +7026,7 @@
         <v>8</v>
       </c>
       <c r="F156" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -7043,7 +7046,7 @@
         <v>9</v>
       </c>
       <c r="F157" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -7103,7 +7106,7 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -7143,7 +7146,7 @@
         <v>8</v>
       </c>
       <c r="F162" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -7163,7 +7166,7 @@
         <v>9</v>
       </c>
       <c r="F163" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -7223,7 +7226,7 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -7263,7 +7266,7 @@
         <v>8</v>
       </c>
       <c r="F168" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -7283,7 +7286,7 @@
         <v>9</v>
       </c>
       <c r="F169" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -7343,7 +7346,7 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -7383,7 +7386,7 @@
         <v>8</v>
       </c>
       <c r="F174" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -7403,7 +7406,7 @@
         <v>9</v>
       </c>
       <c r="F175" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -7463,7 +7466,7 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -7503,7 +7506,7 @@
         <v>8</v>
       </c>
       <c r="F180" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -7523,7 +7526,7 @@
         <v>9</v>
       </c>
       <c r="F181" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -7583,7 +7586,7 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -7623,7 +7626,7 @@
         <v>8</v>
       </c>
       <c r="F186" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -7643,7 +7646,7 @@
         <v>9</v>
       </c>
       <c r="F187" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -7703,7 +7706,7 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -7743,7 +7746,7 @@
         <v>8</v>
       </c>
       <c r="F192" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -7763,7 +7766,7 @@
         <v>9</v>
       </c>
       <c r="F193" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -7823,7 +7826,7 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -7863,7 +7866,7 @@
         <v>8</v>
       </c>
       <c r="F198" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -7883,7 +7886,7 @@
         <v>9</v>
       </c>
       <c r="F199" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -7943,7 +7946,7 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -7983,7 +7986,7 @@
         <v>8</v>
       </c>
       <c r="F204" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -8003,7 +8006,7 @@
         <v>9</v>
       </c>
       <c r="F205" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -8063,7 +8066,7 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -8103,7 +8106,7 @@
         <v>8</v>
       </c>
       <c r="F210" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -8123,7 +8126,7 @@
         <v>9</v>
       </c>
       <c r="F211" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/3AEM - Estadisticos 20211.xlsx
+++ b/grupos/3AEM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="157">
   <si>
     <t>Materia</t>
   </si>
@@ -86,6 +86,9 @@
     <t>CORTES MOLOHUA NEHIZER JAEL</t>
   </si>
   <si>
+    <t>CORTEZ ANTONIO CRISTIAN JAVIER</t>
+  </si>
+  <si>
     <t>COYOHUA XOTLANIHUA JAIR</t>
   </si>
   <si>
@@ -191,12 +194,12 @@
     <t>Rodríguez Román Leticia</t>
   </si>
   <si>
+    <t>Castro Vasquez Julieta</t>
+  </si>
+  <si>
     <t>Torres Sánchez José Luis</t>
   </si>
   <si>
-    <t>Castro Vasquez Julieta</t>
-  </si>
-  <si>
     <t>Rivera Cruz Ezequiel</t>
   </si>
   <si>
@@ -227,256 +230,265 @@
     <t>BERNABE</t>
   </si>
   <si>
+    <t>CORTEZ</t>
+  </si>
+  <si>
+    <t>COLOTL</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>COCOTLE</t>
+  </si>
+  <si>
+    <t>COYOHUA</t>
+  </si>
+  <si>
+    <t>ESPIRITU</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
+    <t>MOLOHUA</t>
+  </si>
+  <si>
+    <t>NIEVES</t>
+  </si>
+  <si>
+    <t>NICIO</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>TZANAHUA</t>
+  </si>
+  <si>
+    <t>TEQUIHUATLE</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>XOCUA</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>TLECUILE</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>GUZMAN</t>
+  </si>
+  <si>
+    <t>BALDERAS</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
+    <t>TEXOCO</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>ACOSTA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>VINALAY</t>
+  </si>
+  <si>
+    <t>YOPIHUA</t>
+  </si>
+  <si>
+    <t>COXCAHUA</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>BERISTAIN</t>
+  </si>
+  <si>
+    <t>HECTOR</t>
+  </si>
+  <si>
+    <t>CRISTOPHER ALAIN</t>
+  </si>
+  <si>
+    <t>JAIR</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>CRISTIAN JAVIER</t>
+  </si>
+  <si>
+    <t>ALMA RUBI</t>
+  </si>
+  <si>
+    <t>NEHIZER JAEL</t>
+  </si>
+  <si>
+    <t>JOSUE</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>IGNACIO</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL</t>
+  </si>
+  <si>
+    <t>ALEXIS MANUEL</t>
+  </si>
+  <si>
+    <t>JUAN MANUEL</t>
+  </si>
+  <si>
+    <t>IRVING URIEL</t>
+  </si>
+  <si>
+    <t>ANDRES NOEL</t>
+  </si>
+  <si>
+    <t>OCTAVIO</t>
+  </si>
+  <si>
+    <t>JESUS HAZAEL</t>
+  </si>
+  <si>
+    <t>JESUS DARIO</t>
+  </si>
+  <si>
+    <t>JOSE JULIAN</t>
+  </si>
+  <si>
+    <t>JOSE ABRAHAM</t>
+  </si>
+  <si>
+    <t>ANGEL SAID</t>
+  </si>
+  <si>
+    <t>LUIS ALEJANDRO</t>
+  </si>
+  <si>
+    <t>DULCE MARIA</t>
+  </si>
+  <si>
+    <t>OMAR</t>
+  </si>
+  <si>
+    <t>MISAEL</t>
+  </si>
+  <si>
+    <t>DIANA ARELI</t>
+  </si>
+  <si>
+    <t>ANGEL AMILCAR</t>
+  </si>
+  <si>
+    <t>MARCOS URIEL</t>
+  </si>
+  <si>
+    <t>CRISTAL</t>
+  </si>
+  <si>
     <t>BUENO</t>
   </si>
   <si>
-    <t>COCOTLE</t>
-  </si>
-  <si>
-    <t>COLOTL</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>CORONA</t>
-  </si>
-  <si>
-    <t>COYOHUA</t>
-  </si>
-  <si>
-    <t>ESPIRITU</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MAZAHUA</t>
-  </si>
-  <si>
-    <t>MOLOHUA</t>
-  </si>
-  <si>
-    <t>NIEVES</t>
-  </si>
-  <si>
-    <t>NICIO</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
     <t>ROMERO</t>
   </si>
   <si>
-    <t>TZANAHUA</t>
-  </si>
-  <si>
-    <t>TEQUIHUATLE</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>XOCUA</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>TLECUILE</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
     <t>SOLIS</t>
   </si>
   <si>
     <t>DE LA CRUZ</t>
   </si>
   <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>GUZMAN</t>
-  </si>
-  <si>
-    <t>BALDERAS</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
     <t>MIXCOHA</t>
   </si>
   <si>
-    <t>AMADOR</t>
-  </si>
-  <si>
-    <t>TEXOCO</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>ACOSTA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>VINALAY</t>
-  </si>
-  <si>
-    <t>YOPIHUA</t>
-  </si>
-  <si>
-    <t>COXCAHUA</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>BERISTAIN</t>
-  </si>
-  <si>
-    <t>HECTOR</t>
-  </si>
-  <si>
-    <t>CRISTOPHER ALAIN</t>
-  </si>
-  <si>
-    <t>JAIR</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
     <t>JORGE LUIS</t>
   </si>
   <si>
-    <t>MISAEL</t>
-  </si>
-  <si>
-    <t>ALMA RUBI</t>
-  </si>
-  <si>
-    <t>NEHIZER JAEL</t>
-  </si>
-  <si>
-    <t>JOSUE</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>ALEJANDRO</t>
-  </si>
-  <si>
-    <t>IGNACIO</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL</t>
-  </si>
-  <si>
-    <t>ALEXIS MANUEL</t>
-  </si>
-  <si>
-    <t>JUAN MANUEL</t>
-  </si>
-  <si>
-    <t>IRVING URIEL</t>
-  </si>
-  <si>
     <t>DIEGO ADELFO</t>
   </si>
   <si>
-    <t>ANDRES NOEL</t>
-  </si>
-  <si>
-    <t>OCTAVIO</t>
-  </si>
-  <si>
-    <t>JESUS HAZAEL</t>
-  </si>
-  <si>
-    <t>JESUS DARIO</t>
-  </si>
-  <si>
-    <t>JOSE JULIAN</t>
-  </si>
-  <si>
-    <t>JOSE ABRAHAM</t>
-  </si>
-  <si>
-    <t>ANGEL SAID</t>
-  </si>
-  <si>
-    <t>LUIS ALEJANDRO</t>
-  </si>
-  <si>
-    <t>DULCE MARIA</t>
-  </si>
-  <si>
     <t>JOSE MATEO</t>
-  </si>
-  <si>
-    <t>OMAR</t>
-  </si>
-  <si>
-    <t>DIANA ARELI</t>
-  </si>
-  <si>
-    <t>ANGEL AMILCAR</t>
-  </si>
-  <si>
-    <t>MARCOS URIEL</t>
-  </si>
-  <si>
-    <t>CRISTAL</t>
   </si>
 </sst>
 </file>
@@ -834,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -974,10 +986,10 @@
         <v>-1</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -1028,10 +1040,10 @@
         <v>-1</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y4">
         <v>7</v>
@@ -1042,7 +1054,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -1051,10 +1063,10 @@
         <v>-1</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -1096,7 +1108,7 @@
         <v>-1</v>
       </c>
       <c r="T5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U5">
         <v>-1</v>
@@ -1105,10 +1117,10 @@
         <v>-1</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y5">
         <v>-1</v>
@@ -1128,10 +1140,10 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -1182,10 +1194,10 @@
         <v>9</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y6">
         <v>-1</v>
@@ -1205,10 +1217,10 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -1259,10 +1271,10 @@
         <v>6</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y7">
         <v>-1</v>
@@ -1276,16 +1288,16 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1330,16 +1342,16 @@
         <v>7</v>
       </c>
       <c r="U8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V8">
         <v>10</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y8">
         <v>10</v>
@@ -1353,16 +1365,16 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>9</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -1407,16 +1419,16 @@
         <v>6</v>
       </c>
       <c r="U9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V9">
         <v>9</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y9">
         <v>9</v>
@@ -1436,10 +1448,10 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -1490,10 +1502,10 @@
         <v>9</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y10">
         <v>10</v>
@@ -1513,10 +1525,10 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -1567,10 +1579,10 @@
         <v>8</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y11">
         <v>10</v>
@@ -1590,10 +1602,10 @@
         <v>6</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -1644,10 +1656,10 @@
         <v>6</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y12">
         <v>-1</v>
@@ -1667,10 +1679,10 @@
         <v>-1</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -1721,10 +1733,10 @@
         <v>-1</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y13">
         <v>-1</v>
@@ -1821,10 +1833,10 @@
         <v>-1</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G15">
         <v>-1</v>
@@ -1875,10 +1887,10 @@
         <v>-1</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y15">
         <v>-1</v>
@@ -1889,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C16">
         <v>-1</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="H16">
         <v>-1</v>
@@ -1943,22 +1955,22 @@
         <v>-1</v>
       </c>
       <c r="T16">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="U16">
         <v>-1</v>
       </c>
       <c r="V16">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y16">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1966,76 +1978,76 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G17">
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <v>-1</v>
+      </c>
+      <c r="I17">
+        <v>-1</v>
+      </c>
+      <c r="J17">
+        <v>-1</v>
+      </c>
+      <c r="K17">
+        <v>-1</v>
+      </c>
+      <c r="L17">
+        <v>-1</v>
+      </c>
+      <c r="M17">
+        <v>-1</v>
+      </c>
+      <c r="N17">
+        <v>-1</v>
+      </c>
+      <c r="O17">
+        <v>-1</v>
+      </c>
+      <c r="P17">
+        <v>-1</v>
+      </c>
+      <c r="Q17">
+        <v>-1</v>
+      </c>
+      <c r="R17">
+        <v>-1</v>
+      </c>
+      <c r="S17">
+        <v>-1</v>
+      </c>
+      <c r="T17">
+        <v>7</v>
+      </c>
+      <c r="U17">
         <v>8</v>
       </c>
-      <c r="H17">
-        <v>-1</v>
-      </c>
-      <c r="I17">
-        <v>-1</v>
-      </c>
-      <c r="J17">
-        <v>-1</v>
-      </c>
-      <c r="K17">
-        <v>-1</v>
-      </c>
-      <c r="L17">
-        <v>-1</v>
-      </c>
-      <c r="M17">
-        <v>-1</v>
-      </c>
-      <c r="N17">
-        <v>-1</v>
-      </c>
-      <c r="O17">
-        <v>-1</v>
-      </c>
-      <c r="P17">
-        <v>-1</v>
-      </c>
-      <c r="Q17">
-        <v>-1</v>
-      </c>
-      <c r="R17">
-        <v>-1</v>
-      </c>
-      <c r="S17">
-        <v>-1</v>
-      </c>
-      <c r="T17">
-        <v>6</v>
-      </c>
-      <c r="U17">
-        <v>-1</v>
-      </c>
       <c r="V17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y17">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2049,70 +2061,70 @@
         <v>-1</v>
       </c>
       <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18">
         <v>8</v>
       </c>
-      <c r="E18">
-        <v>-1</v>
-      </c>
-      <c r="F18">
-        <v>-1</v>
-      </c>
-      <c r="G18">
+      <c r="H18">
+        <v>-1</v>
+      </c>
+      <c r="I18">
+        <v>-1</v>
+      </c>
+      <c r="J18">
+        <v>-1</v>
+      </c>
+      <c r="K18">
+        <v>-1</v>
+      </c>
+      <c r="L18">
+        <v>-1</v>
+      </c>
+      <c r="M18">
+        <v>-1</v>
+      </c>
+      <c r="N18">
+        <v>-1</v>
+      </c>
+      <c r="O18">
+        <v>-1</v>
+      </c>
+      <c r="P18">
+        <v>-1</v>
+      </c>
+      <c r="Q18">
+        <v>-1</v>
+      </c>
+      <c r="R18">
+        <v>-1</v>
+      </c>
+      <c r="S18">
+        <v>-1</v>
+      </c>
+      <c r="T18">
+        <v>6</v>
+      </c>
+      <c r="U18">
+        <v>-1</v>
+      </c>
+      <c r="V18">
+        <v>7</v>
+      </c>
+      <c r="W18">
         <v>9</v>
       </c>
-      <c r="H18">
-        <v>-1</v>
-      </c>
-      <c r="I18">
-        <v>-1</v>
-      </c>
-      <c r="J18">
-        <v>-1</v>
-      </c>
-      <c r="K18">
-        <v>-1</v>
-      </c>
-      <c r="L18">
-        <v>-1</v>
-      </c>
-      <c r="M18">
-        <v>-1</v>
-      </c>
-      <c r="N18">
-        <v>-1</v>
-      </c>
-      <c r="O18">
-        <v>-1</v>
-      </c>
-      <c r="P18">
-        <v>-1</v>
-      </c>
-      <c r="Q18">
-        <v>-1</v>
-      </c>
-      <c r="R18">
-        <v>-1</v>
-      </c>
-      <c r="S18">
-        <v>-1</v>
-      </c>
-      <c r="T18">
-        <v>6</v>
-      </c>
-      <c r="U18">
-        <v>-1</v>
-      </c>
-      <c r="V18">
+      <c r="X18">
+        <v>9</v>
+      </c>
+      <c r="Y18">
         <v>8</v>
-      </c>
-      <c r="W18">
-        <v>-1</v>
-      </c>
-      <c r="X18">
-        <v>-1</v>
-      </c>
-      <c r="Y18">
-        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2120,22 +2132,22 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>-1</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H19">
         <v>-1</v>
@@ -2174,22 +2186,22 @@
         <v>-1</v>
       </c>
       <c r="T19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U19">
         <v>-1</v>
       </c>
       <c r="V19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2197,19 +2209,19 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C20">
         <v>-1</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G20">
         <v>-1</v>
@@ -2251,19 +2263,19 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="U20">
         <v>-1</v>
       </c>
       <c r="V20">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y20">
         <v>-1</v>
@@ -2274,76 +2286,76 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
         <v>9</v>
       </c>
-      <c r="E21">
-        <v>-1</v>
-      </c>
       <c r="F21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G21">
+        <v>-1</v>
+      </c>
+      <c r="H21">
+        <v>-1</v>
+      </c>
+      <c r="I21">
+        <v>-1</v>
+      </c>
+      <c r="J21">
+        <v>-1</v>
+      </c>
+      <c r="K21">
+        <v>-1</v>
+      </c>
+      <c r="L21">
+        <v>-1</v>
+      </c>
+      <c r="M21">
+        <v>-1</v>
+      </c>
+      <c r="N21">
+        <v>-1</v>
+      </c>
+      <c r="O21">
+        <v>-1</v>
+      </c>
+      <c r="P21">
+        <v>-1</v>
+      </c>
+      <c r="Q21">
+        <v>-1</v>
+      </c>
+      <c r="R21">
+        <v>-1</v>
+      </c>
+      <c r="S21">
+        <v>-1</v>
+      </c>
+      <c r="T21">
+        <v>6</v>
+      </c>
+      <c r="U21">
+        <v>6</v>
+      </c>
+      <c r="V21">
+        <v>7</v>
+      </c>
+      <c r="W21">
         <v>9</v>
       </c>
-      <c r="H21">
-        <v>-1</v>
-      </c>
-      <c r="I21">
-        <v>-1</v>
-      </c>
-      <c r="J21">
-        <v>-1</v>
-      </c>
-      <c r="K21">
-        <v>-1</v>
-      </c>
-      <c r="L21">
-        <v>-1</v>
-      </c>
-      <c r="M21">
-        <v>-1</v>
-      </c>
-      <c r="N21">
-        <v>-1</v>
-      </c>
-      <c r="O21">
-        <v>-1</v>
-      </c>
-      <c r="P21">
-        <v>-1</v>
-      </c>
-      <c r="Q21">
-        <v>-1</v>
-      </c>
-      <c r="R21">
-        <v>-1</v>
-      </c>
-      <c r="S21">
-        <v>-1</v>
-      </c>
-      <c r="T21">
-        <v>7</v>
-      </c>
-      <c r="U21">
-        <v>-1</v>
-      </c>
-      <c r="V21">
+      <c r="X21">
         <v>9</v>
       </c>
-      <c r="W21">
-        <v>-1</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
       <c r="Y21">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2351,22 +2363,22 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>-1</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H22">
         <v>-1</v>
@@ -2405,22 +2417,22 @@
         <v>-1</v>
       </c>
       <c r="T22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U22">
         <v>-1</v>
       </c>
       <c r="V22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2434,13 +2446,13 @@
         <v>-1</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="E23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G23">
         <v>-1</v>
@@ -2488,13 +2500,13 @@
         <v>-1</v>
       </c>
       <c r="V23">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y23">
         <v>-1</v>
@@ -2505,7 +2517,7 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C24">
         <v>-1</v>
@@ -2514,10 +2526,10 @@
         <v>6</v>
       </c>
       <c r="E24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G24">
         <v>-1</v>
@@ -2559,7 +2571,7 @@
         <v>-1</v>
       </c>
       <c r="T24">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="U24">
         <v>-1</v>
@@ -2568,10 +2580,10 @@
         <v>6</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y24">
         <v>-1</v>
@@ -2582,19 +2594,19 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G25">
         <v>-1</v>
@@ -2636,19 +2648,19 @@
         <v>-1</v>
       </c>
       <c r="T25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y25">
         <v>-1</v>
@@ -2668,10 +2680,10 @@
         <v>-1</v>
       </c>
       <c r="E26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G26">
         <v>-1</v>
@@ -2722,10 +2734,10 @@
         <v>-1</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y26">
         <v>-1</v>
@@ -2745,10 +2757,10 @@
         <v>-1</v>
       </c>
       <c r="E27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G27">
         <v>-1</v>
@@ -2799,10 +2811,10 @@
         <v>-1</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y27">
         <v>-1</v>
@@ -2819,13 +2831,13 @@
         <v>-1</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="E28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G28">
         <v>-1</v>
@@ -2873,13 +2885,13 @@
         <v>-1</v>
       </c>
       <c r="V28">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y28">
         <v>-1</v>
@@ -2890,22 +2902,22 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C29">
         <v>-1</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H29">
         <v>-1</v>
@@ -2944,22 +2956,22 @@
         <v>-1</v>
       </c>
       <c r="T29">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="U29">
         <v>-1</v>
       </c>
       <c r="V29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y29">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -2973,16 +2985,16 @@
         <v>-1</v>
       </c>
       <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
         <v>8</v>
       </c>
-      <c r="E30">
-        <v>-1</v>
-      </c>
       <c r="F30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G30">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H30">
         <v>-1</v>
@@ -3027,16 +3039,16 @@
         <v>-1</v>
       </c>
       <c r="V30">
+        <v>7</v>
+      </c>
+      <c r="W30">
         <v>8</v>
       </c>
-      <c r="W30">
-        <v>-1</v>
-      </c>
       <c r="X30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y30">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -3047,19 +3059,19 @@
         <v>7</v>
       </c>
       <c r="C31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G31">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H31">
         <v>-1</v>
@@ -3101,19 +3113,19 @@
         <v>7</v>
       </c>
       <c r="U31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y31">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -3121,19 +3133,19 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <v>-1</v>
       </c>
       <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
         <v>9</v>
       </c>
-      <c r="E32">
-        <v>-1</v>
-      </c>
       <c r="F32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G32">
         <v>10</v>
@@ -3175,19 +3187,19 @@
         <v>-1</v>
       </c>
       <c r="T32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U32">
         <v>-1</v>
       </c>
       <c r="V32">
+        <v>6</v>
+      </c>
+      <c r="W32">
         <v>9</v>
       </c>
-      <c r="W32">
-        <v>-1</v>
-      </c>
       <c r="X32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y32">
         <v>10</v>
@@ -3198,22 +3210,22 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C33">
         <v>-1</v>
       </c>
       <c r="D33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H33">
         <v>-1</v>
@@ -3252,22 +3264,22 @@
         <v>-1</v>
       </c>
       <c r="T33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U33">
         <v>-1</v>
       </c>
       <c r="V33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -3278,16 +3290,16 @@
         <v>-1</v>
       </c>
       <c r="C34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D34">
         <v>-1</v>
       </c>
       <c r="E34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G34">
         <v>-1</v>
@@ -3332,16 +3344,16 @@
         <v>-1</v>
       </c>
       <c r="U34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V34">
         <v>-1</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y34">
         <v>-1</v>
@@ -3352,7 +3364,7 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C35">
         <v>-1</v>
@@ -3361,10 +3373,10 @@
         <v>-1</v>
       </c>
       <c r="E35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G35">
         <v>-1</v>
@@ -3406,7 +3418,7 @@
         <v>-1</v>
       </c>
       <c r="T35">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="U35">
         <v>-1</v>
@@ -3415,10 +3427,10 @@
         <v>-1</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y35">
         <v>-1</v>
@@ -3429,7 +3441,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <v>-1</v>
@@ -3438,10 +3450,10 @@
         <v>-1</v>
       </c>
       <c r="E36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G36">
         <v>-1</v>
@@ -3483,7 +3495,7 @@
         <v>-1</v>
       </c>
       <c r="T36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U36">
         <v>-1</v>
@@ -3492,10 +3504,10 @@
         <v>-1</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y36">
         <v>-1</v>
@@ -3506,22 +3518,22 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C37">
         <v>-1</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="E37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G37">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="H37">
         <v>-1</v>
@@ -3560,22 +3572,22 @@
         <v>-1</v>
       </c>
       <c r="T37">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="U37">
         <v>-1</v>
       </c>
       <c r="V37">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y37">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -3583,22 +3595,22 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>-1</v>
       </c>
       <c r="D38">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H38">
         <v>-1</v>
@@ -3637,21 +3649,98 @@
         <v>-1</v>
       </c>
       <c r="T38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U38">
         <v>-1</v>
       </c>
       <c r="V38">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>-1</v>
+      </c>
+      <c r="C39">
+        <v>-1</v>
+      </c>
+      <c r="D39">
+        <v>-1</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>-1</v>
+      </c>
+      <c r="H39">
+        <v>-1</v>
+      </c>
+      <c r="I39">
+        <v>-1</v>
+      </c>
+      <c r="J39">
+        <v>-1</v>
+      </c>
+      <c r="K39">
+        <v>-1</v>
+      </c>
+      <c r="L39">
+        <v>-1</v>
+      </c>
+      <c r="M39">
+        <v>-1</v>
+      </c>
+      <c r="N39">
+        <v>-1</v>
+      </c>
+      <c r="O39">
+        <v>-1</v>
+      </c>
+      <c r="P39">
+        <v>-1</v>
+      </c>
+      <c r="Q39">
+        <v>-1</v>
+      </c>
+      <c r="R39">
+        <v>-1</v>
+      </c>
+      <c r="S39">
+        <v>-1</v>
+      </c>
+      <c r="T39">
+        <v>-1</v>
+      </c>
+      <c r="U39">
+        <v>-1</v>
+      </c>
+      <c r="V39">
+        <v>-1</v>
+      </c>
+      <c r="W39">
+        <v>5</v>
+      </c>
+      <c r="X39">
+        <v>5</v>
+      </c>
+      <c r="Y39">
         <v>-1</v>
       </c>
     </row>
@@ -3682,31 +3771,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3714,118 +3803,127 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>19.44</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>7.4</v>
+      </c>
       <c r="I2">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>80.56</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>38.89</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>8.9</v>
+      </c>
       <c r="I3">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>47.22</v>
+      </c>
+      <c r="H4">
+        <v>6.7</v>
       </c>
       <c r="I4">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>47.22</v>
       </c>
       <c r="H5">
-        <v>8.9</v>
+        <v>6.7</v>
       </c>
       <c r="I5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>60</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3833,19 +3931,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>51.43</v>
+        <v>52.78</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3857,7 +3955,7 @@
         <v>17</v>
       </c>
       <c r="J6">
-        <v>48.57</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3865,10 +3963,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -3877,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>57.14</v>
+        <v>55.56</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3886,10 +3984,10 @@
         <v>7.6</v>
       </c>
       <c r="I7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7">
-        <v>42.86</v>
+        <v>44.44</v>
       </c>
     </row>
   </sheetData>
@@ -3899,7 +3997,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F211"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3911,16 +4009,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -3934,19 +4032,19 @@
         <v>20330051920001</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
         <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3954,19 +4052,19 @@
         <v>20330051920001</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3974,13 +4072,13 @@
         <v>20330051920001</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
         <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -3991,59 +4089,59 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920001</v>
+        <v>20330051920002</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920001</v>
+        <v>20330051920002</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920001</v>
+        <v>20330051920361</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
         <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
         <v>57</v>
@@ -4051,53 +4149,53 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920002</v>
+        <v>20330051920361</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920002</v>
+        <v>20330051920003</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
         <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920002</v>
+        <v>20330051920003</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
         <v>122</v>
@@ -4111,13 +4209,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920002</v>
+        <v>20330051920003</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
         <v>122</v>
@@ -4126,24 +4224,24 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920002</v>
+        <v>20330051920005</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
         <v>57</v>
@@ -4151,59 +4249,59 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920002</v>
+        <v>20330051920005</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920361</v>
+        <v>20330051920005</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
         <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920361</v>
+        <v>20330051920005</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
         <v>123</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
         <v>60</v>
@@ -4211,39 +4309,39 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920361</v>
+        <v>20330051920005</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
         <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920361</v>
+        <v>20330051920005</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
         <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
         <v>59</v>
@@ -4251,19 +4349,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920361</v>
+        <v>20330051920007</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
         <v>57</v>
@@ -4271,19 +4369,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920361</v>
+        <v>20330051920008</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
         <v>57</v>
@@ -4291,119 +4389,119 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920003</v>
+        <v>20330051920008</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920003</v>
+        <v>20330051920008</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920003</v>
+        <v>20330051920362</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920003</v>
+        <v>20330051920362</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920003</v>
+        <v>20330051920362</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920003</v>
+        <v>20330051920009</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
         <v>57</v>
@@ -4411,119 +4509,119 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920004</v>
+        <v>20330051920009</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920004</v>
+        <v>20330051920010</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920004</v>
+        <v>20330051920010</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920004</v>
+        <v>20330051920010</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920004</v>
+        <v>20330051920010</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920004</v>
+        <v>20330051920011</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
         <v>57</v>
@@ -4531,239 +4629,239 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920006</v>
+        <v>20330051920012</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920006</v>
+        <v>20330051920013</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
         <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920006</v>
+        <v>20330051920013</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
         <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920006</v>
+        <v>20330051920013</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
         <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920006</v>
+        <v>20330051920013</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
         <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920006</v>
+        <v>20330051920014</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920007</v>
+        <v>20330051920015</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E38" t="s">
         <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920007</v>
+        <v>20330051920016</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920007</v>
+        <v>20330051920016</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20330051920007</v>
+        <v>20330051920016</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920007</v>
+        <v>20330051920016</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920007</v>
+        <v>20330051920363</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
         <v>57</v>
@@ -4771,239 +4869,239 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920008</v>
+        <v>20330051920363</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D44" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20330051920008</v>
+        <v>20330051920363</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920008</v>
+        <v>20330051920363</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920008</v>
+        <v>20330051920021</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20330051920008</v>
+        <v>20330051920021</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D48" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920008</v>
+        <v>20330051920021</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920362</v>
+        <v>20330051920023</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>20330051920362</v>
+        <v>20330051920024</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20330051920362</v>
+        <v>20330051920024</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>20330051920362</v>
+        <v>20330051920024</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="D53" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E53" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>20330051920362</v>
+        <v>20330051920024</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>20330051920362</v>
+        <v>20330051920025</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="D55" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F55" t="s">
         <v>57</v>
@@ -5011,176 +5109,176 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>20330051920009</v>
+        <v>20330051920025</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D56" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>20330051920009</v>
+        <v>20330051920025</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D57" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>20330051920009</v>
+        <v>20330051920025</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D58" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>20330051920009</v>
+        <v>20330051920026</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D59" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>20330051920009</v>
+        <v>20330051920026</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D60" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>20330051920009</v>
+        <v>20330051920026</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D61" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>20330051920010</v>
+        <v>20330051920026</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D62" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F62" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>20330051920010</v>
+        <v>20330051920060</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D63" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="E63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F63" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>20330051920010</v>
+        <v>20330051920060</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D64" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
@@ -5191,39 +5289,39 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>20330051920010</v>
+        <v>20330051920060</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D65" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="E65" t="s">
         <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>20330051920010</v>
+        <v>20330051920027</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C66" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D66" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F66" t="s">
         <v>57</v>
@@ -5231,19 +5329,19 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>20330051920010</v>
+        <v>20330051920028</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D67" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F67" t="s">
         <v>57</v>
@@ -5251,56 +5349,56 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>20330051920011</v>
+        <v>20330051920031</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C68" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D68" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E68" t="s">
         <v>6</v>
       </c>
       <c r="F68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>20330051920011</v>
+        <v>20330051920031</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D69" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E69" t="s">
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>20330051920011</v>
+        <v>20330051920031</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D70" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E70" t="s">
         <v>10</v>
@@ -5311,39 +5409,39 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>20330051920011</v>
+        <v>20330051920031</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C71" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D71" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E71" t="s">
         <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>20330051920011</v>
+        <v>20330051920032</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C72" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="D72" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F72" t="s">
         <v>57</v>
@@ -5351,59 +5449,59 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>20330051920011</v>
+        <v>20330051920033</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D73" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>20330051920012</v>
+        <v>20330051920033</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D74" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E74" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>20330051920012</v>
+        <v>20330051920033</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D75" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E75" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F75" t="s">
         <v>60</v>
@@ -5411,79 +5509,79 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>20330051920012</v>
+        <v>20330051920034</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C76" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D76" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>20330051920012</v>
+        <v>20330051920034</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D77" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="E77" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>20330051920012</v>
+        <v>20330051920034</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D78" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>20330051920012</v>
+        <v>20330051920035</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C79" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="D79" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F79" t="s">
         <v>57</v>
@@ -5491,99 +5589,99 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>20330051920013</v>
+        <v>20330051920035</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C80" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D80" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="E80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>20330051920013</v>
+        <v>20330051920035</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D81" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="E81" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>20330051920013</v>
+        <v>20330051920035</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D82" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>20330051920013</v>
+        <v>20330051920036</v>
       </c>
       <c r="B83" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C83" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D83" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F83" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>20330051920013</v>
+        <v>20330051920037</v>
       </c>
       <c r="B84" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C84" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D84" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F84" t="s">
         <v>57</v>
@@ -5591,2542 +5689,62 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>20330051920013</v>
+        <v>20330051920037</v>
       </c>
       <c r="B85" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C85" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D85" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="E85" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>20330051920014</v>
+        <v>20330051920037</v>
       </c>
       <c r="B86" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C86" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D86" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E86" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>20330051920014</v>
+        <v>20330051920037</v>
       </c>
       <c r="B87" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C87" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D87" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F87" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>20330051920014</v>
-      </c>
-      <c r="B88" t="s">
-        <v>77</v>
-      </c>
-      <c r="C88" t="s">
-        <v>104</v>
-      </c>
-      <c r="D88" t="s">
-        <v>134</v>
-      </c>
-      <c r="E88" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>20330051920014</v>
-      </c>
-      <c r="B89" t="s">
-        <v>77</v>
-      </c>
-      <c r="C89" t="s">
-        <v>104</v>
-      </c>
-      <c r="D89" t="s">
-        <v>134</v>
-      </c>
-      <c r="E89" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>20330051920014</v>
-      </c>
-      <c r="B90" t="s">
-        <v>77</v>
-      </c>
-      <c r="C90" t="s">
-        <v>104</v>
-      </c>
-      <c r="D90" t="s">
-        <v>134</v>
-      </c>
-      <c r="E90" t="s">
-        <v>8</v>
-      </c>
-      <c r="F90" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>20330051920014</v>
-      </c>
-      <c r="B91" t="s">
-        <v>77</v>
-      </c>
-      <c r="C91" t="s">
-        <v>104</v>
-      </c>
-      <c r="D91" t="s">
-        <v>134</v>
-      </c>
-      <c r="E91" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>20330051920015</v>
-      </c>
-      <c r="B92" t="s">
-        <v>78</v>
-      </c>
-      <c r="C92" t="s">
-        <v>105</v>
-      </c>
-      <c r="D92" t="s">
-        <v>135</v>
-      </c>
-      <c r="E92" t="s">
-        <v>6</v>
-      </c>
-      <c r="F92" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>20330051920015</v>
-      </c>
-      <c r="B93" t="s">
-        <v>78</v>
-      </c>
-      <c r="C93" t="s">
-        <v>105</v>
-      </c>
-      <c r="D93" t="s">
-        <v>135</v>
-      </c>
-      <c r="E93" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>20330051920015</v>
-      </c>
-      <c r="B94" t="s">
-        <v>78</v>
-      </c>
-      <c r="C94" t="s">
-        <v>105</v>
-      </c>
-      <c r="D94" t="s">
-        <v>135</v>
-      </c>
-      <c r="E94" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>20330051920015</v>
-      </c>
-      <c r="B95" t="s">
-        <v>78</v>
-      </c>
-      <c r="C95" t="s">
-        <v>105</v>
-      </c>
-      <c r="D95" t="s">
-        <v>135</v>
-      </c>
-      <c r="E95" t="s">
-        <v>5</v>
-      </c>
-      <c r="F95" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>20330051920015</v>
-      </c>
-      <c r="B96" t="s">
-        <v>78</v>
-      </c>
-      <c r="C96" t="s">
-        <v>105</v>
-      </c>
-      <c r="D96" t="s">
-        <v>135</v>
-      </c>
-      <c r="E96" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>20330051920015</v>
-      </c>
-      <c r="B97" t="s">
-        <v>78</v>
-      </c>
-      <c r="C97" t="s">
-        <v>105</v>
-      </c>
-      <c r="D97" t="s">
-        <v>135</v>
-      </c>
-      <c r="E97" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>20330051920016</v>
-      </c>
-      <c r="B98" t="s">
-        <v>79</v>
-      </c>
-      <c r="C98" t="s">
-        <v>106</v>
-      </c>
-      <c r="D98" t="s">
-        <v>136</v>
-      </c>
-      <c r="E98" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>20330051920016</v>
-      </c>
-      <c r="B99" t="s">
-        <v>79</v>
-      </c>
-      <c r="C99" t="s">
-        <v>106</v>
-      </c>
-      <c r="D99" t="s">
-        <v>136</v>
-      </c>
-      <c r="E99" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>20330051920016</v>
-      </c>
-      <c r="B100" t="s">
-        <v>79</v>
-      </c>
-      <c r="C100" t="s">
-        <v>106</v>
-      </c>
-      <c r="D100" t="s">
-        <v>136</v>
-      </c>
-      <c r="E100" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>20330051920016</v>
-      </c>
-      <c r="B101" t="s">
-        <v>79</v>
-      </c>
-      <c r="C101" t="s">
-        <v>106</v>
-      </c>
-      <c r="D101" t="s">
-        <v>136</v>
-      </c>
-      <c r="E101" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>20330051920016</v>
-      </c>
-      <c r="B102" t="s">
-        <v>79</v>
-      </c>
-      <c r="C102" t="s">
-        <v>106</v>
-      </c>
-      <c r="D102" t="s">
-        <v>136</v>
-      </c>
-      <c r="E102" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>20330051920016</v>
-      </c>
-      <c r="B103" t="s">
-        <v>79</v>
-      </c>
-      <c r="C103" t="s">
-        <v>106</v>
-      </c>
-      <c r="D103" t="s">
-        <v>136</v>
-      </c>
-      <c r="E103" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>20330051920017</v>
-      </c>
-      <c r="B104" t="s">
-        <v>79</v>
-      </c>
-      <c r="C104" t="s">
-        <v>107</v>
-      </c>
-      <c r="D104" t="s">
-        <v>137</v>
-      </c>
-      <c r="E104" t="s">
-        <v>6</v>
-      </c>
-      <c r="F104" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>20330051920017</v>
-      </c>
-      <c r="B105" t="s">
-        <v>79</v>
-      </c>
-      <c r="C105" t="s">
-        <v>107</v>
-      </c>
-      <c r="D105" t="s">
-        <v>137</v>
-      </c>
-      <c r="E105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>20330051920017</v>
-      </c>
-      <c r="B106" t="s">
-        <v>79</v>
-      </c>
-      <c r="C106" t="s">
-        <v>107</v>
-      </c>
-      <c r="D106" t="s">
-        <v>137</v>
-      </c>
-      <c r="E106" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>20330051920017</v>
-      </c>
-      <c r="B107" t="s">
-        <v>79</v>
-      </c>
-      <c r="C107" t="s">
-        <v>107</v>
-      </c>
-      <c r="D107" t="s">
-        <v>137</v>
-      </c>
-      <c r="E107" t="s">
-        <v>5</v>
-      </c>
-      <c r="F107" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>20330051920017</v>
-      </c>
-      <c r="B108" t="s">
-        <v>79</v>
-      </c>
-      <c r="C108" t="s">
-        <v>107</v>
-      </c>
-      <c r="D108" t="s">
-        <v>137</v>
-      </c>
-      <c r="E108" t="s">
-        <v>8</v>
-      </c>
-      <c r="F108" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>20330051920017</v>
-      </c>
-      <c r="B109" t="s">
-        <v>79</v>
-      </c>
-      <c r="C109" t="s">
-        <v>107</v>
-      </c>
-      <c r="D109" t="s">
-        <v>137</v>
-      </c>
-      <c r="E109" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>20330051920363</v>
-      </c>
-      <c r="B110" t="s">
-        <v>80</v>
-      </c>
-      <c r="C110" t="s">
-        <v>108</v>
-      </c>
-      <c r="D110" t="s">
-        <v>138</v>
-      </c>
-      <c r="E110" t="s">
-        <v>6</v>
-      </c>
-      <c r="F110" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>20330051920363</v>
-      </c>
-      <c r="B111" t="s">
-        <v>80</v>
-      </c>
-      <c r="C111" t="s">
-        <v>108</v>
-      </c>
-      <c r="D111" t="s">
-        <v>138</v>
-      </c>
-      <c r="E111" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>20330051920363</v>
-      </c>
-      <c r="B112" t="s">
-        <v>80</v>
-      </c>
-      <c r="C112" t="s">
-        <v>108</v>
-      </c>
-      <c r="D112" t="s">
-        <v>138</v>
-      </c>
-      <c r="E112" t="s">
-        <v>10</v>
-      </c>
-      <c r="F112" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>20330051920363</v>
-      </c>
-      <c r="B113" t="s">
-        <v>80</v>
-      </c>
-      <c r="C113" t="s">
-        <v>108</v>
-      </c>
-      <c r="D113" t="s">
-        <v>138</v>
-      </c>
-      <c r="E113" t="s">
-        <v>5</v>
-      </c>
-      <c r="F113" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>20330051920363</v>
-      </c>
-      <c r="B114" t="s">
-        <v>80</v>
-      </c>
-      <c r="C114" t="s">
-        <v>108</v>
-      </c>
-      <c r="D114" t="s">
-        <v>138</v>
-      </c>
-      <c r="E114" t="s">
-        <v>8</v>
-      </c>
-      <c r="F114" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>20330051920363</v>
-      </c>
-      <c r="B115" t="s">
-        <v>80</v>
-      </c>
-      <c r="C115" t="s">
-        <v>108</v>
-      </c>
-      <c r="D115" t="s">
-        <v>138</v>
-      </c>
-      <c r="E115" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>20330051920021</v>
-      </c>
-      <c r="B116" t="s">
-        <v>81</v>
-      </c>
-      <c r="C116" t="s">
-        <v>109</v>
-      </c>
-      <c r="D116" t="s">
-        <v>139</v>
-      </c>
-      <c r="E116" t="s">
-        <v>6</v>
-      </c>
-      <c r="F116" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>20330051920021</v>
-      </c>
-      <c r="B117" t="s">
-        <v>81</v>
-      </c>
-      <c r="C117" t="s">
-        <v>109</v>
-      </c>
-      <c r="D117" t="s">
-        <v>139</v>
-      </c>
-      <c r="E117" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>20330051920021</v>
-      </c>
-      <c r="B118" t="s">
-        <v>81</v>
-      </c>
-      <c r="C118" t="s">
-        <v>109</v>
-      </c>
-      <c r="D118" t="s">
-        <v>139</v>
-      </c>
-      <c r="E118" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>20330051920021</v>
-      </c>
-      <c r="B119" t="s">
-        <v>81</v>
-      </c>
-      <c r="C119" t="s">
-        <v>109</v>
-      </c>
-      <c r="D119" t="s">
-        <v>139</v>
-      </c>
-      <c r="E119" t="s">
-        <v>5</v>
-      </c>
-      <c r="F119" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>20330051920021</v>
-      </c>
-      <c r="B120" t="s">
-        <v>81</v>
-      </c>
-      <c r="C120" t="s">
-        <v>109</v>
-      </c>
-      <c r="D120" t="s">
-        <v>139</v>
-      </c>
-      <c r="E120" t="s">
-        <v>8</v>
-      </c>
-      <c r="F120" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>20330051920021</v>
-      </c>
-      <c r="B121" t="s">
-        <v>81</v>
-      </c>
-      <c r="C121" t="s">
-        <v>109</v>
-      </c>
-      <c r="D121" t="s">
-        <v>139</v>
-      </c>
-      <c r="E121" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>20330051920023</v>
-      </c>
-      <c r="B122" t="s">
-        <v>82</v>
-      </c>
-      <c r="C122" t="s">
-        <v>110</v>
-      </c>
-      <c r="D122" t="s">
-        <v>140</v>
-      </c>
-      <c r="E122" t="s">
-        <v>6</v>
-      </c>
-      <c r="F122" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>20330051920023</v>
-      </c>
-      <c r="B123" t="s">
-        <v>82</v>
-      </c>
-      <c r="C123" t="s">
-        <v>110</v>
-      </c>
-      <c r="D123" t="s">
-        <v>140</v>
-      </c>
-      <c r="E123" t="s">
-        <v>7</v>
-      </c>
-      <c r="F123" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>20330051920023</v>
-      </c>
-      <c r="B124" t="s">
-        <v>82</v>
-      </c>
-      <c r="C124" t="s">
-        <v>110</v>
-      </c>
-      <c r="D124" t="s">
-        <v>140</v>
-      </c>
-      <c r="E124" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>20330051920023</v>
-      </c>
-      <c r="B125" t="s">
-        <v>82</v>
-      </c>
-      <c r="C125" t="s">
-        <v>110</v>
-      </c>
-      <c r="D125" t="s">
-        <v>140</v>
-      </c>
-      <c r="E125" t="s">
-        <v>5</v>
-      </c>
-      <c r="F125" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>20330051920023</v>
-      </c>
-      <c r="B126" t="s">
-        <v>82</v>
-      </c>
-      <c r="C126" t="s">
-        <v>110</v>
-      </c>
-      <c r="D126" t="s">
-        <v>140</v>
-      </c>
-      <c r="E126" t="s">
-        <v>8</v>
-      </c>
-      <c r="F126" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>20330051920023</v>
-      </c>
-      <c r="B127" t="s">
-        <v>82</v>
-      </c>
-      <c r="C127" t="s">
-        <v>110</v>
-      </c>
-      <c r="D127" t="s">
-        <v>140</v>
-      </c>
-      <c r="E127" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>20330051920024</v>
-      </c>
-      <c r="B128" t="s">
-        <v>83</v>
-      </c>
-      <c r="C128" t="s">
-        <v>111</v>
-      </c>
-      <c r="D128" t="s">
-        <v>141</v>
-      </c>
-      <c r="E128" t="s">
-        <v>6</v>
-      </c>
-      <c r="F128" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>20330051920024</v>
-      </c>
-      <c r="B129" t="s">
-        <v>83</v>
-      </c>
-      <c r="C129" t="s">
-        <v>111</v>
-      </c>
-      <c r="D129" t="s">
-        <v>141</v>
-      </c>
-      <c r="E129" t="s">
-        <v>7</v>
-      </c>
-      <c r="F129" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>20330051920024</v>
-      </c>
-      <c r="B130" t="s">
-        <v>83</v>
-      </c>
-      <c r="C130" t="s">
-        <v>111</v>
-      </c>
-      <c r="D130" t="s">
-        <v>141</v>
-      </c>
-      <c r="E130" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>20330051920024</v>
-      </c>
-      <c r="B131" t="s">
-        <v>83</v>
-      </c>
-      <c r="C131" t="s">
-        <v>111</v>
-      </c>
-      <c r="D131" t="s">
-        <v>141</v>
-      </c>
-      <c r="E131" t="s">
-        <v>5</v>
-      </c>
-      <c r="F131" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>20330051920024</v>
-      </c>
-      <c r="B132" t="s">
-        <v>83</v>
-      </c>
-      <c r="C132" t="s">
-        <v>111</v>
-      </c>
-      <c r="D132" t="s">
-        <v>141</v>
-      </c>
-      <c r="E132" t="s">
-        <v>8</v>
-      </c>
-      <c r="F132" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>20330051920024</v>
-      </c>
-      <c r="B133" t="s">
-        <v>83</v>
-      </c>
-      <c r="C133" t="s">
-        <v>111</v>
-      </c>
-      <c r="D133" t="s">
-        <v>141</v>
-      </c>
-      <c r="E133" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>20330051920025</v>
-      </c>
-      <c r="B134" t="s">
-        <v>84</v>
-      </c>
-      <c r="C134" t="s">
-        <v>112</v>
-      </c>
-      <c r="D134" t="s">
-        <v>142</v>
-      </c>
-      <c r="E134" t="s">
-        <v>6</v>
-      </c>
-      <c r="F134" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>20330051920025</v>
-      </c>
-      <c r="B135" t="s">
-        <v>84</v>
-      </c>
-      <c r="C135" t="s">
-        <v>112</v>
-      </c>
-      <c r="D135" t="s">
-        <v>142</v>
-      </c>
-      <c r="E135" t="s">
-        <v>7</v>
-      </c>
-      <c r="F135" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>20330051920025</v>
-      </c>
-      <c r="B136" t="s">
-        <v>84</v>
-      </c>
-      <c r="C136" t="s">
-        <v>112</v>
-      </c>
-      <c r="D136" t="s">
-        <v>142</v>
-      </c>
-      <c r="E136" t="s">
-        <v>10</v>
-      </c>
-      <c r="F136" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>20330051920025</v>
-      </c>
-      <c r="B137" t="s">
-        <v>84</v>
-      </c>
-      <c r="C137" t="s">
-        <v>112</v>
-      </c>
-      <c r="D137" t="s">
-        <v>142</v>
-      </c>
-      <c r="E137" t="s">
-        <v>5</v>
-      </c>
-      <c r="F137" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>20330051920025</v>
-      </c>
-      <c r="B138" t="s">
-        <v>84</v>
-      </c>
-      <c r="C138" t="s">
-        <v>112</v>
-      </c>
-      <c r="D138" t="s">
-        <v>142</v>
-      </c>
-      <c r="E138" t="s">
-        <v>8</v>
-      </c>
-      <c r="F138" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>20330051920025</v>
-      </c>
-      <c r="B139" t="s">
-        <v>84</v>
-      </c>
-      <c r="C139" t="s">
-        <v>112</v>
-      </c>
-      <c r="D139" t="s">
-        <v>142</v>
-      </c>
-      <c r="E139" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>20330051920026</v>
-      </c>
-      <c r="B140" t="s">
-        <v>85</v>
-      </c>
-      <c r="C140" t="s">
-        <v>113</v>
-      </c>
-      <c r="D140" t="s">
-        <v>143</v>
-      </c>
-      <c r="E140" t="s">
-        <v>6</v>
-      </c>
-      <c r="F140" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>20330051920026</v>
-      </c>
-      <c r="B141" t="s">
-        <v>85</v>
-      </c>
-      <c r="C141" t="s">
-        <v>113</v>
-      </c>
-      <c r="D141" t="s">
-        <v>143</v>
-      </c>
-      <c r="E141" t="s">
-        <v>7</v>
-      </c>
-      <c r="F141" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>20330051920026</v>
-      </c>
-      <c r="B142" t="s">
-        <v>85</v>
-      </c>
-      <c r="C142" t="s">
-        <v>113</v>
-      </c>
-      <c r="D142" t="s">
-        <v>143</v>
-      </c>
-      <c r="E142" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>20330051920026</v>
-      </c>
-      <c r="B143" t="s">
-        <v>85</v>
-      </c>
-      <c r="C143" t="s">
-        <v>113</v>
-      </c>
-      <c r="D143" t="s">
-        <v>143</v>
-      </c>
-      <c r="E143" t="s">
-        <v>5</v>
-      </c>
-      <c r="F143" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>20330051920026</v>
-      </c>
-      <c r="B144" t="s">
-        <v>85</v>
-      </c>
-      <c r="C144" t="s">
-        <v>113</v>
-      </c>
-      <c r="D144" t="s">
-        <v>143</v>
-      </c>
-      <c r="E144" t="s">
-        <v>8</v>
-      </c>
-      <c r="F144" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>20330051920026</v>
-      </c>
-      <c r="B145" t="s">
-        <v>85</v>
-      </c>
-      <c r="C145" t="s">
-        <v>113</v>
-      </c>
-      <c r="D145" t="s">
-        <v>143</v>
-      </c>
-      <c r="E145" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>20330051920060</v>
-      </c>
-      <c r="B146" t="s">
-        <v>86</v>
-      </c>
-      <c r="C146" t="s">
-        <v>114</v>
-      </c>
-      <c r="D146" t="s">
-        <v>144</v>
-      </c>
-      <c r="E146" t="s">
-        <v>6</v>
-      </c>
-      <c r="F146" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>20330051920060</v>
-      </c>
-      <c r="B147" t="s">
-        <v>86</v>
-      </c>
-      <c r="C147" t="s">
-        <v>114</v>
-      </c>
-      <c r="D147" t="s">
-        <v>144</v>
-      </c>
-      <c r="E147" t="s">
-        <v>7</v>
-      </c>
-      <c r="F147" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>20330051920060</v>
-      </c>
-      <c r="B148" t="s">
-        <v>86</v>
-      </c>
-      <c r="C148" t="s">
-        <v>114</v>
-      </c>
-      <c r="D148" t="s">
-        <v>144</v>
-      </c>
-      <c r="E148" t="s">
-        <v>10</v>
-      </c>
-      <c r="F148" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>20330051920060</v>
-      </c>
-      <c r="B149" t="s">
-        <v>86</v>
-      </c>
-      <c r="C149" t="s">
-        <v>114</v>
-      </c>
-      <c r="D149" t="s">
-        <v>144</v>
-      </c>
-      <c r="E149" t="s">
-        <v>5</v>
-      </c>
-      <c r="F149" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>20330051920060</v>
-      </c>
-      <c r="B150" t="s">
-        <v>86</v>
-      </c>
-      <c r="C150" t="s">
-        <v>114</v>
-      </c>
-      <c r="D150" t="s">
-        <v>144</v>
-      </c>
-      <c r="E150" t="s">
-        <v>8</v>
-      </c>
-      <c r="F150" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>20330051920060</v>
-      </c>
-      <c r="B151" t="s">
-        <v>86</v>
-      </c>
-      <c r="C151" t="s">
-        <v>114</v>
-      </c>
-      <c r="D151" t="s">
-        <v>144</v>
-      </c>
-      <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>20330051920027</v>
-      </c>
-      <c r="B152" t="s">
-        <v>87</v>
-      </c>
-      <c r="C152" t="s">
-        <v>113</v>
-      </c>
-      <c r="D152" t="s">
-        <v>145</v>
-      </c>
-      <c r="E152" t="s">
-        <v>6</v>
-      </c>
-      <c r="F152" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>20330051920027</v>
-      </c>
-      <c r="B153" t="s">
-        <v>87</v>
-      </c>
-      <c r="C153" t="s">
-        <v>113</v>
-      </c>
-      <c r="D153" t="s">
-        <v>145</v>
-      </c>
-      <c r="E153" t="s">
-        <v>7</v>
-      </c>
-      <c r="F153" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>20330051920027</v>
-      </c>
-      <c r="B154" t="s">
-        <v>87</v>
-      </c>
-      <c r="C154" t="s">
-        <v>113</v>
-      </c>
-      <c r="D154" t="s">
-        <v>145</v>
-      </c>
-      <c r="E154" t="s">
-        <v>10</v>
-      </c>
-      <c r="F154" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>20330051920027</v>
-      </c>
-      <c r="B155" t="s">
-        <v>87</v>
-      </c>
-      <c r="C155" t="s">
-        <v>113</v>
-      </c>
-      <c r="D155" t="s">
-        <v>145</v>
-      </c>
-      <c r="E155" t="s">
-        <v>5</v>
-      </c>
-      <c r="F155" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>20330051920027</v>
-      </c>
-      <c r="B156" t="s">
-        <v>87</v>
-      </c>
-      <c r="C156" t="s">
-        <v>113</v>
-      </c>
-      <c r="D156" t="s">
-        <v>145</v>
-      </c>
-      <c r="E156" t="s">
-        <v>8</v>
-      </c>
-      <c r="F156" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>20330051920027</v>
-      </c>
-      <c r="B157" t="s">
-        <v>87</v>
-      </c>
-      <c r="C157" t="s">
-        <v>113</v>
-      </c>
-      <c r="D157" t="s">
-        <v>145</v>
-      </c>
-      <c r="E157" t="s">
-        <v>9</v>
-      </c>
-      <c r="F157" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>20330051920028</v>
-      </c>
-      <c r="B158" t="s">
-        <v>88</v>
-      </c>
-      <c r="C158" t="s">
-        <v>78</v>
-      </c>
-      <c r="D158" t="s">
-        <v>146</v>
-      </c>
-      <c r="E158" t="s">
-        <v>6</v>
-      </c>
-      <c r="F158" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>20330051920028</v>
-      </c>
-      <c r="B159" t="s">
-        <v>88</v>
-      </c>
-      <c r="C159" t="s">
-        <v>78</v>
-      </c>
-      <c r="D159" t="s">
-        <v>146</v>
-      </c>
-      <c r="E159" t="s">
-        <v>7</v>
-      </c>
-      <c r="F159" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>20330051920028</v>
-      </c>
-      <c r="B160" t="s">
-        <v>88</v>
-      </c>
-      <c r="C160" t="s">
-        <v>78</v>
-      </c>
-      <c r="D160" t="s">
-        <v>146</v>
-      </c>
-      <c r="E160" t="s">
-        <v>10</v>
-      </c>
-      <c r="F160" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>20330051920028</v>
-      </c>
-      <c r="B161" t="s">
-        <v>88</v>
-      </c>
-      <c r="C161" t="s">
-        <v>78</v>
-      </c>
-      <c r="D161" t="s">
-        <v>146</v>
-      </c>
-      <c r="E161" t="s">
-        <v>5</v>
-      </c>
-      <c r="F161" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>20330051920028</v>
-      </c>
-      <c r="B162" t="s">
-        <v>88</v>
-      </c>
-      <c r="C162" t="s">
-        <v>78</v>
-      </c>
-      <c r="D162" t="s">
-        <v>146</v>
-      </c>
-      <c r="E162" t="s">
-        <v>8</v>
-      </c>
-      <c r="F162" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>20330051920028</v>
-      </c>
-      <c r="B163" t="s">
-        <v>88</v>
-      </c>
-      <c r="C163" t="s">
-        <v>78</v>
-      </c>
-      <c r="D163" t="s">
-        <v>146</v>
-      </c>
-      <c r="E163" t="s">
-        <v>9</v>
-      </c>
-      <c r="F163" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>20330051920029</v>
-      </c>
-      <c r="B164" t="s">
-        <v>89</v>
-      </c>
-      <c r="C164" t="s">
-        <v>79</v>
-      </c>
-      <c r="D164" t="s">
-        <v>147</v>
-      </c>
-      <c r="E164" t="s">
-        <v>6</v>
-      </c>
-      <c r="F164" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>20330051920029</v>
-      </c>
-      <c r="B165" t="s">
-        <v>89</v>
-      </c>
-      <c r="C165" t="s">
-        <v>79</v>
-      </c>
-      <c r="D165" t="s">
-        <v>147</v>
-      </c>
-      <c r="E165" t="s">
-        <v>7</v>
-      </c>
-      <c r="F165" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>20330051920029</v>
-      </c>
-      <c r="B166" t="s">
-        <v>89</v>
-      </c>
-      <c r="C166" t="s">
-        <v>79</v>
-      </c>
-      <c r="D166" t="s">
-        <v>147</v>
-      </c>
-      <c r="E166" t="s">
-        <v>10</v>
-      </c>
-      <c r="F166" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>20330051920029</v>
-      </c>
-      <c r="B167" t="s">
-        <v>89</v>
-      </c>
-      <c r="C167" t="s">
-        <v>79</v>
-      </c>
-      <c r="D167" t="s">
-        <v>147</v>
-      </c>
-      <c r="E167" t="s">
-        <v>5</v>
-      </c>
-      <c r="F167" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>20330051920029</v>
-      </c>
-      <c r="B168" t="s">
-        <v>89</v>
-      </c>
-      <c r="C168" t="s">
-        <v>79</v>
-      </c>
-      <c r="D168" t="s">
-        <v>147</v>
-      </c>
-      <c r="E168" t="s">
-        <v>8</v>
-      </c>
-      <c r="F168" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>20330051920029</v>
-      </c>
-      <c r="B169" t="s">
-        <v>89</v>
-      </c>
-      <c r="C169" t="s">
-        <v>79</v>
-      </c>
-      <c r="D169" t="s">
-        <v>147</v>
-      </c>
-      <c r="E169" t="s">
-        <v>9</v>
-      </c>
-      <c r="F169" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>20330051920031</v>
-      </c>
-      <c r="B170" t="s">
-        <v>90</v>
-      </c>
-      <c r="C170" t="s">
-        <v>115</v>
-      </c>
-      <c r="D170" t="s">
-        <v>148</v>
-      </c>
-      <c r="E170" t="s">
-        <v>6</v>
-      </c>
-      <c r="F170" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>20330051920031</v>
-      </c>
-      <c r="B171" t="s">
-        <v>90</v>
-      </c>
-      <c r="C171" t="s">
-        <v>115</v>
-      </c>
-      <c r="D171" t="s">
-        <v>148</v>
-      </c>
-      <c r="E171" t="s">
-        <v>7</v>
-      </c>
-      <c r="F171" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>20330051920031</v>
-      </c>
-      <c r="B172" t="s">
-        <v>90</v>
-      </c>
-      <c r="C172" t="s">
-        <v>115</v>
-      </c>
-      <c r="D172" t="s">
-        <v>148</v>
-      </c>
-      <c r="E172" t="s">
-        <v>10</v>
-      </c>
-      <c r="F172" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>20330051920031</v>
-      </c>
-      <c r="B173" t="s">
-        <v>90</v>
-      </c>
-      <c r="C173" t="s">
-        <v>115</v>
-      </c>
-      <c r="D173" t="s">
-        <v>148</v>
-      </c>
-      <c r="E173" t="s">
-        <v>5</v>
-      </c>
-      <c r="F173" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>20330051920031</v>
-      </c>
-      <c r="B174" t="s">
-        <v>90</v>
-      </c>
-      <c r="C174" t="s">
-        <v>115</v>
-      </c>
-      <c r="D174" t="s">
-        <v>148</v>
-      </c>
-      <c r="E174" t="s">
-        <v>8</v>
-      </c>
-      <c r="F174" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>20330051920031</v>
-      </c>
-      <c r="B175" t="s">
-        <v>90</v>
-      </c>
-      <c r="C175" t="s">
-        <v>115</v>
-      </c>
-      <c r="D175" t="s">
-        <v>148</v>
-      </c>
-      <c r="E175" t="s">
-        <v>9</v>
-      </c>
-      <c r="F175" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>20330051920032</v>
-      </c>
-      <c r="B176" t="s">
-        <v>91</v>
-      </c>
-      <c r="C176" t="s">
-        <v>116</v>
-      </c>
-      <c r="D176" t="s">
-        <v>126</v>
-      </c>
-      <c r="E176" t="s">
-        <v>6</v>
-      </c>
-      <c r="F176" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>20330051920032</v>
-      </c>
-      <c r="B177" t="s">
-        <v>91</v>
-      </c>
-      <c r="C177" t="s">
-        <v>116</v>
-      </c>
-      <c r="D177" t="s">
-        <v>126</v>
-      </c>
-      <c r="E177" t="s">
-        <v>7</v>
-      </c>
-      <c r="F177" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>20330051920032</v>
-      </c>
-      <c r="B178" t="s">
-        <v>91</v>
-      </c>
-      <c r="C178" t="s">
-        <v>116</v>
-      </c>
-      <c r="D178" t="s">
-        <v>126</v>
-      </c>
-      <c r="E178" t="s">
-        <v>10</v>
-      </c>
-      <c r="F178" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>20330051920032</v>
-      </c>
-      <c r="B179" t="s">
-        <v>91</v>
-      </c>
-      <c r="C179" t="s">
-        <v>116</v>
-      </c>
-      <c r="D179" t="s">
-        <v>126</v>
-      </c>
-      <c r="E179" t="s">
-        <v>5</v>
-      </c>
-      <c r="F179" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>20330051920032</v>
-      </c>
-      <c r="B180" t="s">
-        <v>91</v>
-      </c>
-      <c r="C180" t="s">
-        <v>116</v>
-      </c>
-      <c r="D180" t="s">
-        <v>126</v>
-      </c>
-      <c r="E180" t="s">
-        <v>8</v>
-      </c>
-      <c r="F180" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181">
-        <v>20330051920032</v>
-      </c>
-      <c r="B181" t="s">
-        <v>91</v>
-      </c>
-      <c r="C181" t="s">
-        <v>116</v>
-      </c>
-      <c r="D181" t="s">
-        <v>126</v>
-      </c>
-      <c r="E181" t="s">
-        <v>9</v>
-      </c>
-      <c r="F181" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182">
-        <v>20330051920033</v>
-      </c>
-      <c r="B182" t="s">
-        <v>92</v>
-      </c>
-      <c r="C182" t="s">
-        <v>92</v>
-      </c>
-      <c r="D182" t="s">
-        <v>149</v>
-      </c>
-      <c r="E182" t="s">
-        <v>6</v>
-      </c>
-      <c r="F182" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>20330051920033</v>
-      </c>
-      <c r="B183" t="s">
-        <v>92</v>
-      </c>
-      <c r="C183" t="s">
-        <v>92</v>
-      </c>
-      <c r="D183" t="s">
-        <v>149</v>
-      </c>
-      <c r="E183" t="s">
-        <v>7</v>
-      </c>
-      <c r="F183" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>20330051920033</v>
-      </c>
-      <c r="B184" t="s">
-        <v>92</v>
-      </c>
-      <c r="C184" t="s">
-        <v>92</v>
-      </c>
-      <c r="D184" t="s">
-        <v>149</v>
-      </c>
-      <c r="E184" t="s">
-        <v>10</v>
-      </c>
-      <c r="F184" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
-        <v>20330051920033</v>
-      </c>
-      <c r="B185" t="s">
-        <v>92</v>
-      </c>
-      <c r="C185" t="s">
-        <v>92</v>
-      </c>
-      <c r="D185" t="s">
-        <v>149</v>
-      </c>
-      <c r="E185" t="s">
-        <v>5</v>
-      </c>
-      <c r="F185" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
-        <v>20330051920033</v>
-      </c>
-      <c r="B186" t="s">
-        <v>92</v>
-      </c>
-      <c r="C186" t="s">
-        <v>92</v>
-      </c>
-      <c r="D186" t="s">
-        <v>149</v>
-      </c>
-      <c r="E186" t="s">
-        <v>8</v>
-      </c>
-      <c r="F186" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187">
-        <v>20330051920033</v>
-      </c>
-      <c r="B187" t="s">
-        <v>92</v>
-      </c>
-      <c r="C187" t="s">
-        <v>92</v>
-      </c>
-      <c r="D187" t="s">
-        <v>149</v>
-      </c>
-      <c r="E187" t="s">
-        <v>9</v>
-      </c>
-      <c r="F187" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188">
-        <v>20330051920034</v>
-      </c>
-      <c r="B188" t="s">
-        <v>93</v>
-      </c>
-      <c r="C188" t="s">
-        <v>117</v>
-      </c>
-      <c r="D188" t="s">
-        <v>150</v>
-      </c>
-      <c r="E188" t="s">
-        <v>6</v>
-      </c>
-      <c r="F188" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189">
-        <v>20330051920034</v>
-      </c>
-      <c r="B189" t="s">
-        <v>93</v>
-      </c>
-      <c r="C189" t="s">
-        <v>117</v>
-      </c>
-      <c r="D189" t="s">
-        <v>150</v>
-      </c>
-      <c r="E189" t="s">
-        <v>7</v>
-      </c>
-      <c r="F189" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190">
-        <v>20330051920034</v>
-      </c>
-      <c r="B190" t="s">
-        <v>93</v>
-      </c>
-      <c r="C190" t="s">
-        <v>117</v>
-      </c>
-      <c r="D190" t="s">
-        <v>150</v>
-      </c>
-      <c r="E190" t="s">
-        <v>10</v>
-      </c>
-      <c r="F190" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191">
-        <v>20330051920034</v>
-      </c>
-      <c r="B191" t="s">
-        <v>93</v>
-      </c>
-      <c r="C191" t="s">
-        <v>117</v>
-      </c>
-      <c r="D191" t="s">
-        <v>150</v>
-      </c>
-      <c r="E191" t="s">
-        <v>5</v>
-      </c>
-      <c r="F191" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
-        <v>20330051920034</v>
-      </c>
-      <c r="B192" t="s">
-        <v>93</v>
-      </c>
-      <c r="C192" t="s">
-        <v>117</v>
-      </c>
-      <c r="D192" t="s">
-        <v>150</v>
-      </c>
-      <c r="E192" t="s">
-        <v>8</v>
-      </c>
-      <c r="F192" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193">
-        <v>20330051920034</v>
-      </c>
-      <c r="B193" t="s">
-        <v>93</v>
-      </c>
-      <c r="C193" t="s">
-        <v>117</v>
-      </c>
-      <c r="D193" t="s">
-        <v>150</v>
-      </c>
-      <c r="E193" t="s">
-        <v>9</v>
-      </c>
-      <c r="F193" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194">
-        <v>20330051920035</v>
-      </c>
-      <c r="B194" t="s">
-        <v>94</v>
-      </c>
-      <c r="C194" t="s">
-        <v>118</v>
-      </c>
-      <c r="D194" t="s">
-        <v>151</v>
-      </c>
-      <c r="E194" t="s">
-        <v>6</v>
-      </c>
-      <c r="F194" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195">
-        <v>20330051920035</v>
-      </c>
-      <c r="B195" t="s">
-        <v>94</v>
-      </c>
-      <c r="C195" t="s">
-        <v>118</v>
-      </c>
-      <c r="D195" t="s">
-        <v>151</v>
-      </c>
-      <c r="E195" t="s">
-        <v>7</v>
-      </c>
-      <c r="F195" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196">
-        <v>20330051920035</v>
-      </c>
-      <c r="B196" t="s">
-        <v>94</v>
-      </c>
-      <c r="C196" t="s">
-        <v>118</v>
-      </c>
-      <c r="D196" t="s">
-        <v>151</v>
-      </c>
-      <c r="E196" t="s">
-        <v>10</v>
-      </c>
-      <c r="F196" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197">
-        <v>20330051920035</v>
-      </c>
-      <c r="B197" t="s">
-        <v>94</v>
-      </c>
-      <c r="C197" t="s">
-        <v>118</v>
-      </c>
-      <c r="D197" t="s">
-        <v>151</v>
-      </c>
-      <c r="E197" t="s">
-        <v>5</v>
-      </c>
-      <c r="F197" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198">
-        <v>20330051920035</v>
-      </c>
-      <c r="B198" t="s">
-        <v>94</v>
-      </c>
-      <c r="C198" t="s">
-        <v>118</v>
-      </c>
-      <c r="D198" t="s">
-        <v>151</v>
-      </c>
-      <c r="E198" t="s">
-        <v>8</v>
-      </c>
-      <c r="F198" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199">
-        <v>20330051920035</v>
-      </c>
-      <c r="B199" t="s">
-        <v>94</v>
-      </c>
-      <c r="C199" t="s">
-        <v>118</v>
-      </c>
-      <c r="D199" t="s">
-        <v>151</v>
-      </c>
-      <c r="E199" t="s">
-        <v>9</v>
-      </c>
-      <c r="F199" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200">
-        <v>20330051920036</v>
-      </c>
-      <c r="B200" t="s">
-        <v>95</v>
-      </c>
-      <c r="C200" t="s">
-        <v>119</v>
-      </c>
-      <c r="D200" t="s">
-        <v>124</v>
-      </c>
-      <c r="E200" t="s">
-        <v>6</v>
-      </c>
-      <c r="F200" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201">
-        <v>20330051920036</v>
-      </c>
-      <c r="B201" t="s">
-        <v>95</v>
-      </c>
-      <c r="C201" t="s">
-        <v>119</v>
-      </c>
-      <c r="D201" t="s">
-        <v>124</v>
-      </c>
-      <c r="E201" t="s">
-        <v>7</v>
-      </c>
-      <c r="F201" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202">
-        <v>20330051920036</v>
-      </c>
-      <c r="B202" t="s">
-        <v>95</v>
-      </c>
-      <c r="C202" t="s">
-        <v>119</v>
-      </c>
-      <c r="D202" t="s">
-        <v>124</v>
-      </c>
-      <c r="E202" t="s">
-        <v>10</v>
-      </c>
-      <c r="F202" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203">
-        <v>20330051920036</v>
-      </c>
-      <c r="B203" t="s">
-        <v>95</v>
-      </c>
-      <c r="C203" t="s">
-        <v>119</v>
-      </c>
-      <c r="D203" t="s">
-        <v>124</v>
-      </c>
-      <c r="E203" t="s">
-        <v>5</v>
-      </c>
-      <c r="F203" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204">
-        <v>20330051920036</v>
-      </c>
-      <c r="B204" t="s">
-        <v>95</v>
-      </c>
-      <c r="C204" t="s">
-        <v>119</v>
-      </c>
-      <c r="D204" t="s">
-        <v>124</v>
-      </c>
-      <c r="E204" t="s">
-        <v>8</v>
-      </c>
-      <c r="F204" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205">
-        <v>20330051920036</v>
-      </c>
-      <c r="B205" t="s">
-        <v>95</v>
-      </c>
-      <c r="C205" t="s">
-        <v>119</v>
-      </c>
-      <c r="D205" t="s">
-        <v>124</v>
-      </c>
-      <c r="E205" t="s">
-        <v>9</v>
-      </c>
-      <c r="F205" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="A206">
-        <v>20330051920037</v>
-      </c>
-      <c r="B206" t="s">
-        <v>96</v>
-      </c>
-      <c r="C206" t="s">
-        <v>120</v>
-      </c>
-      <c r="D206" t="s">
-        <v>152</v>
-      </c>
-      <c r="E206" t="s">
-        <v>6</v>
-      </c>
-      <c r="F206" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="A207">
-        <v>20330051920037</v>
-      </c>
-      <c r="B207" t="s">
-        <v>96</v>
-      </c>
-      <c r="C207" t="s">
-        <v>120</v>
-      </c>
-      <c r="D207" t="s">
-        <v>152</v>
-      </c>
-      <c r="E207" t="s">
-        <v>7</v>
-      </c>
-      <c r="F207" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208">
-        <v>20330051920037</v>
-      </c>
-      <c r="B208" t="s">
-        <v>96</v>
-      </c>
-      <c r="C208" t="s">
-        <v>120</v>
-      </c>
-      <c r="D208" t="s">
-        <v>152</v>
-      </c>
-      <c r="E208" t="s">
-        <v>10</v>
-      </c>
-      <c r="F208" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209">
-        <v>20330051920037</v>
-      </c>
-      <c r="B209" t="s">
-        <v>96</v>
-      </c>
-      <c r="C209" t="s">
-        <v>120</v>
-      </c>
-      <c r="D209" t="s">
-        <v>152</v>
-      </c>
-      <c r="E209" t="s">
-        <v>5</v>
-      </c>
-      <c r="F209" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210">
-        <v>20330051920037</v>
-      </c>
-      <c r="B210" t="s">
-        <v>96</v>
-      </c>
-      <c r="C210" t="s">
-        <v>120</v>
-      </c>
-      <c r="D210" t="s">
-        <v>152</v>
-      </c>
-      <c r="E210" t="s">
-        <v>8</v>
-      </c>
-      <c r="F210" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211">
-        <v>20330051920037</v>
-      </c>
-      <c r="B211" t="s">
-        <v>96</v>
-      </c>
-      <c r="C211" t="s">
-        <v>120</v>
-      </c>
-      <c r="D211" t="s">
-        <v>152</v>
-      </c>
-      <c r="E211" t="s">
-        <v>9</v>
-      </c>
-      <c r="F211" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -8136,7 +5754,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8148,33 +5766,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920001</v>
+        <v>20330051920005</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -8182,580 +5800,597 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920002</v>
+        <v>20330051920010</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920361</v>
+        <v>20330051920013</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920003</v>
+        <v>20330051920016</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920004</v>
+        <v>20330051920363</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920006</v>
+        <v>20330051920024</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920007</v>
+        <v>20330051920025</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920008</v>
+        <v>20330051920026</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920362</v>
+        <v>20330051920031</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920009</v>
+        <v>20330051920035</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920010</v>
+        <v>20330051920037</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920011</v>
+        <v>20330051920001</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920012</v>
+        <v>20330051920003</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920013</v>
+        <v>20330051920008</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920014</v>
+        <v>20330051920362</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920015</v>
+        <v>20330051920021</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
         <v>135</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920016</v>
+        <v>20330051920060</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920017</v>
+        <v>20330051920033</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920363</v>
+        <v>20330051920034</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920021</v>
+        <v>20330051920002</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920023</v>
+        <v>20330051920361</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920024</v>
+        <v>20330051920009</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920025</v>
+        <v>20330051920007</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920026</v>
+        <v>20330051920011</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920060</v>
+        <v>20330051920012</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920027</v>
+        <v>20330051920014</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920028</v>
+        <v>20330051920015</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920029</v>
+        <v>20330051920023</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920031</v>
+        <v>20330051920027</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920032</v>
+        <v>20330051920028</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920033</v>
+        <v>20330051920032</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920034</v>
+        <v>20330051920036</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
         <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20330051920035</v>
+        <v>20330051920004</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>20330051920036</v>
+        <v>20330051920006</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="D35" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>20330051920037</v>
+        <v>20330051920017</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>20330051920029</v>
+      </c>
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8765,7 +6400,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8777,25 +6412,439 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920002</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920361</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920361</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920009</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920009</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920029</v>
+      </c>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20330051920029</v>
+      </c>
+      <c r="B9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>20330051920007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20330051920011</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920012</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>20330051920014</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>20330051920015</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>20330051920023</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>20330051920027</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>20330051920028</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>20330051920032</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>20330051920036</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/3AEM - Estadisticos 20211.xlsx
+++ b/grupos/3AEM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="157">
   <si>
     <t>Materia</t>
   </si>
@@ -233,259 +233,259 @@
     <t>CORTEZ</t>
   </si>
   <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>COCOTLE</t>
+  </si>
+  <si>
+    <t>COYOHUA</t>
+  </si>
+  <si>
+    <t>ESPIRITU</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
+    <t>MOLOHUA</t>
+  </si>
+  <si>
+    <t>NIEVES</t>
+  </si>
+  <si>
+    <t>NICIO</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>TZANAHUA</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>XOCUA</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>TLECUILE</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>TEQUIHUATLE</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>GUZMAN</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>AMADOR</t>
+  </si>
+  <si>
+    <t>TEXOCO</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>ACOSTA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>VINALAY</t>
+  </si>
+  <si>
+    <t>YOPIHUA</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>BERISTAIN</t>
+  </si>
+  <si>
+    <t>HECTOR</t>
+  </si>
+  <si>
+    <t>CRISTOPHER ALAIN</t>
+  </si>
+  <si>
+    <t>JAIR</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>CRISTIAN JAVIER</t>
+  </si>
+  <si>
+    <t>NEHIZER JAEL</t>
+  </si>
+  <si>
+    <t>JOSUE</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>IGNACIO</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL</t>
+  </si>
+  <si>
+    <t>ALEXIS MANUEL</t>
+  </si>
+  <si>
+    <t>IRVING URIEL</t>
+  </si>
+  <si>
+    <t>ANDRES NOEL</t>
+  </si>
+  <si>
+    <t>OCTAVIO</t>
+  </si>
+  <si>
+    <t>JESUS HAZAEL</t>
+  </si>
+  <si>
+    <t>JESUS DARIO</t>
+  </si>
+  <si>
+    <t>JOSE JULIAN</t>
+  </si>
+  <si>
+    <t>JOSE ABRAHAM</t>
+  </si>
+  <si>
+    <t>ANGEL SAID</t>
+  </si>
+  <si>
+    <t>LUIS ALEJANDRO</t>
+  </si>
+  <si>
+    <t>OMAR</t>
+  </si>
+  <si>
+    <t>DIANA ARELI</t>
+  </si>
+  <si>
+    <t>ANGEL AMILCAR</t>
+  </si>
+  <si>
+    <t>MARCOS URIEL</t>
+  </si>
+  <si>
+    <t>CRISTAL</t>
+  </si>
+  <si>
+    <t>BUENO</t>
+  </si>
+  <si>
     <t>COLOTL</t>
   </si>
   <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>CORONA</t>
-  </si>
-  <si>
-    <t>COCOTLE</t>
-  </si>
-  <si>
-    <t>COYOHUA</t>
-  </si>
-  <si>
-    <t>ESPIRITU</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MAZAHUA</t>
-  </si>
-  <si>
-    <t>MOLOHUA</t>
-  </si>
-  <si>
-    <t>NIEVES</t>
-  </si>
-  <si>
-    <t>NICIO</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
     <t>ROSAS</t>
   </si>
   <si>
-    <t>TZANAHUA</t>
-  </si>
-  <si>
-    <t>TEQUIHUATLE</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>XOCUA</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>TLECUILE</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>GUZMAN</t>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
   </si>
   <si>
     <t>BALDERAS</t>
   </si>
   <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>AMADOR</t>
-  </si>
-  <si>
-    <t>TEXOCO</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>ACOSTA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>VINALAY</t>
-  </si>
-  <si>
-    <t>YOPIHUA</t>
+    <t>MIXCOHA</t>
   </si>
   <si>
     <t>COXCAHUA</t>
   </si>
   <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>BERISTAIN</t>
-  </si>
-  <si>
-    <t>HECTOR</t>
-  </si>
-  <si>
-    <t>CRISTOPHER ALAIN</t>
-  </si>
-  <si>
-    <t>JAIR</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>CRISTIAN JAVIER</t>
+    <t>JORGE LUIS</t>
+  </si>
+  <si>
+    <t>MISAEL</t>
   </si>
   <si>
     <t>ALMA RUBI</t>
   </si>
   <si>
-    <t>NEHIZER JAEL</t>
-  </si>
-  <si>
-    <t>JOSUE</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>ALEJANDRO</t>
-  </si>
-  <si>
-    <t>IGNACIO</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL</t>
-  </si>
-  <si>
-    <t>ALEXIS MANUEL</t>
-  </si>
-  <si>
     <t>JUAN MANUEL</t>
   </si>
   <si>
-    <t>IRVING URIEL</t>
-  </si>
-  <si>
-    <t>ANDRES NOEL</t>
-  </si>
-  <si>
-    <t>OCTAVIO</t>
-  </si>
-  <si>
-    <t>JESUS HAZAEL</t>
-  </si>
-  <si>
-    <t>JESUS DARIO</t>
-  </si>
-  <si>
-    <t>JOSE JULIAN</t>
-  </si>
-  <si>
-    <t>JOSE ABRAHAM</t>
-  </si>
-  <si>
-    <t>ANGEL SAID</t>
-  </si>
-  <si>
-    <t>LUIS ALEJANDRO</t>
+    <t>DIEGO ADELFO</t>
   </si>
   <si>
     <t>DULCE MARIA</t>
-  </si>
-  <si>
-    <t>OMAR</t>
-  </si>
-  <si>
-    <t>MISAEL</t>
-  </si>
-  <si>
-    <t>DIANA ARELI</t>
-  </si>
-  <si>
-    <t>ANGEL AMILCAR</t>
-  </si>
-  <si>
-    <t>MARCOS URIEL</t>
-  </si>
-  <si>
-    <t>CRISTAL</t>
-  </si>
-  <si>
-    <t>BUENO</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>SOLIS</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>MIXCOHA</t>
-  </si>
-  <si>
-    <t>JORGE LUIS</t>
-  </si>
-  <si>
-    <t>DIEGO ADELFO</t>
   </si>
   <si>
     <t>JOSE MATEO</t>
@@ -1442,7 +1442,7 @@
         <v>-1</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -1496,7 +1496,7 @@
         <v>-1</v>
       </c>
       <c r="U10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V10">
         <v>9</v>
@@ -1519,7 +1519,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -1573,7 +1573,7 @@
         <v>8</v>
       </c>
       <c r="U11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V11">
         <v>8</v>
@@ -2366,7 +2366,7 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D22">
         <v>9</v>
@@ -2420,7 +2420,7 @@
         <v>7</v>
       </c>
       <c r="U22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V22">
         <v>9</v>
@@ -3136,7 +3136,7 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D32">
         <v>6</v>
@@ -3190,7 +3190,7 @@
         <v>7</v>
       </c>
       <c r="U32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V32">
         <v>6</v>
@@ -3213,7 +3213,7 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <v>9</v>
@@ -3267,7 +3267,7 @@
         <v>8</v>
       </c>
       <c r="U33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V33">
         <v>9</v>
@@ -3809,25 +3809,25 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>19.44</v>
+        <v>33.33</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="I2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J2">
-        <v>80.56</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3997,7 +3997,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4035,10 +4035,10 @@
         <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -4055,10 +4055,10 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -4075,10 +4075,10 @@
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -4095,10 +4095,10 @@
         <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -4115,10 +4115,10 @@
         <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -4135,10 +4135,10 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -4155,10 +4155,10 @@
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -4175,10 +4175,10 @@
         <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -4195,10 +4195,10 @@
         <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -4215,10 +4215,10 @@
         <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -4235,10 +4235,10 @@
         <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -4255,10 +4255,10 @@
         <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -4275,10 +4275,10 @@
         <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -4295,10 +4295,10 @@
         <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
@@ -4315,10 +4315,10 @@
         <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -4335,10 +4335,10 @@
         <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -4349,16 +4349,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920007</v>
+        <v>20330051920008</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -4372,19 +4372,19 @@
         <v>20330051920008</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4392,39 +4392,39 @@
         <v>20330051920008</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920008</v>
+        <v>20330051920362</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4432,19 +4432,19 @@
         <v>20330051920362</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4452,33 +4452,33 @@
         <v>20330051920362</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920362</v>
+        <v>20330051920009</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
@@ -4489,16 +4489,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920009</v>
+        <v>20330051920010</v>
       </c>
       <c r="B25" t="s">
         <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
@@ -4509,22 +4509,22 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920009</v>
+        <v>20330051920010</v>
       </c>
       <c r="B26" t="s">
         <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4532,19 +4532,19 @@
         <v>20330051920010</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4552,73 +4552,73 @@
         <v>20330051920010</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920010</v>
+        <v>20330051920011</v>
       </c>
       <c r="B29" t="s">
         <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920010</v>
+        <v>20330051920012</v>
       </c>
       <c r="B30" t="s">
         <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920011</v>
+        <v>20330051920013</v>
       </c>
       <c r="B31" t="s">
         <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -4629,22 +4629,22 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920012</v>
+        <v>20330051920013</v>
       </c>
       <c r="B32" t="s">
         <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4652,19 +4652,19 @@
         <v>20330051920013</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4672,33 +4672,33 @@
         <v>20330051920013</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920013</v>
+        <v>20330051920014</v>
       </c>
       <c r="B35" t="s">
         <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
@@ -4709,62 +4709,62 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920013</v>
+        <v>20330051920016</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920014</v>
+        <v>20330051920016</v>
       </c>
       <c r="B37" t="s">
         <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920015</v>
+        <v>20330051920016</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4772,79 +4772,79 @@
         <v>20330051920016</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920016</v>
+        <v>20330051920363</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20330051920016</v>
+        <v>20330051920363</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920016</v>
+        <v>20330051920363</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4852,53 +4852,53 @@
         <v>20330051920363</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920363</v>
+        <v>20330051920021</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20330051920363</v>
+        <v>20330051920021</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
@@ -4909,16 +4909,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920363</v>
+        <v>20330051920021</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E46" t="s">
         <v>5</v>
@@ -4929,76 +4929,76 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920021</v>
+        <v>20330051920023</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20330051920021</v>
+        <v>20330051920024</v>
       </c>
       <c r="B48" t="s">
         <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920021</v>
+        <v>20330051920024</v>
       </c>
       <c r="B49" t="s">
         <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920023</v>
+        <v>20330051920024</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
@@ -5012,79 +5012,79 @@
         <v>20330051920024</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20330051920024</v>
+        <v>20330051920025</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>20330051920024</v>
+        <v>20330051920025</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D53" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>20330051920024</v>
+        <v>20330051920025</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D54" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E54" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5092,79 +5092,79 @@
         <v>20330051920025</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>20330051920025</v>
+        <v>20330051920026</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D56" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>20330051920025</v>
+        <v>20330051920026</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D57" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>20330051920025</v>
+        <v>20330051920026</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D58" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E58" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5172,53 +5172,53 @@
         <v>20330051920026</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D59" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>20330051920026</v>
+        <v>20330051920060</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D60" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>20330051920026</v>
+        <v>20330051920060</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D61" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
@@ -5229,16 +5229,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>20330051920026</v>
+        <v>20330051920060</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D62" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E62" t="s">
         <v>5</v>
@@ -5249,16 +5249,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>20330051920060</v>
+        <v>20330051920027</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D63" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E63" t="s">
         <v>6</v>
@@ -5269,316 +5269,316 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>20330051920060</v>
+        <v>20330051920031</v>
       </c>
       <c r="B64" t="s">
         <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D64" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>20330051920060</v>
+        <v>20330051920031</v>
       </c>
       <c r="B65" t="s">
         <v>87</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D65" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E65" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>20330051920027</v>
+        <v>20330051920031</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D66" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E66" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>20330051920028</v>
+        <v>20330051920031</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="D67" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F67" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>20330051920031</v>
+        <v>20330051920033</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C68" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D68" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>20330051920031</v>
+        <v>20330051920033</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D69" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>20330051920031</v>
+        <v>20330051920033</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D70" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>20330051920031</v>
+        <v>20330051920034</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C71" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D71" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F71" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>20330051920032</v>
+        <v>20330051920034</v>
       </c>
       <c r="B72" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D72" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>20330051920033</v>
+        <v>20330051920034</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D73" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E73" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>20330051920033</v>
+        <v>20330051920035</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D74" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>20330051920033</v>
+        <v>20330051920035</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="D75" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>20330051920034</v>
+        <v>20330051920035</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C76" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D76" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E76" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>20330051920034</v>
+        <v>20330051920035</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D77" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E77" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>20330051920034</v>
+        <v>20330051920036</v>
       </c>
       <c r="B78" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D78" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>20330051920035</v>
+        <v>20330051920037</v>
       </c>
       <c r="B79" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D79" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E79" t="s">
         <v>6</v>
@@ -5589,16 +5589,16 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>20330051920035</v>
+        <v>20330051920037</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C80" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D80" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E80" t="s">
         <v>7</v>
@@ -5609,16 +5609,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>20330051920035</v>
+        <v>20330051920037</v>
       </c>
       <c r="B81" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D81" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
@@ -5629,121 +5629,21 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>20330051920035</v>
+        <v>20330051920037</v>
       </c>
       <c r="B82" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D82" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E82" t="s">
         <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>20330051920036</v>
-      </c>
-      <c r="B83" t="s">
-        <v>95</v>
-      </c>
-      <c r="C83" t="s">
-        <v>117</v>
-      </c>
-      <c r="D83" t="s">
-        <v>122</v>
-      </c>
-      <c r="E83" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>20330051920037</v>
-      </c>
-      <c r="B84" t="s">
-        <v>96</v>
-      </c>
-      <c r="C84" t="s">
-        <v>118</v>
-      </c>
-      <c r="D84" t="s">
-        <v>148</v>
-      </c>
-      <c r="E84" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>20330051920037</v>
-      </c>
-      <c r="B85" t="s">
-        <v>96</v>
-      </c>
-      <c r="C85" t="s">
-        <v>118</v>
-      </c>
-      <c r="D85" t="s">
-        <v>148</v>
-      </c>
-      <c r="E85" t="s">
-        <v>7</v>
-      </c>
-      <c r="F85" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>20330051920037</v>
-      </c>
-      <c r="B86" t="s">
-        <v>96</v>
-      </c>
-      <c r="C86" t="s">
-        <v>118</v>
-      </c>
-      <c r="D86" t="s">
-        <v>148</v>
-      </c>
-      <c r="E86" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>20330051920037</v>
-      </c>
-      <c r="B87" t="s">
-        <v>96</v>
-      </c>
-      <c r="C87" t="s">
-        <v>118</v>
-      </c>
-      <c r="D87" t="s">
-        <v>148</v>
-      </c>
-      <c r="E87" t="s">
-        <v>5</v>
-      </c>
-      <c r="F87" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5789,10 +5689,10 @@
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -5803,13 +5703,13 @@
         <v>20330051920010</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -5820,13 +5720,13 @@
         <v>20330051920013</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -5837,13 +5737,13 @@
         <v>20330051920016</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -5854,13 +5754,13 @@
         <v>20330051920363</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -5871,13 +5771,13 @@
         <v>20330051920024</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -5888,13 +5788,13 @@
         <v>20330051920025</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -5905,13 +5805,13 @@
         <v>20330051920026</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -5922,13 +5822,13 @@
         <v>20330051920031</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -5939,13 +5839,13 @@
         <v>20330051920035</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -5956,13 +5856,13 @@
         <v>20330051920037</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -5976,10 +5876,10 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -5993,10 +5893,10 @@
         <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -6007,13 +5907,13 @@
         <v>20330051920008</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -6024,13 +5924,13 @@
         <v>20330051920362</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -6041,13 +5941,13 @@
         <v>20330051920021</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -6058,13 +5958,13 @@
         <v>20330051920060</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -6075,13 +5975,13 @@
         <v>20330051920033</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -6092,13 +5992,13 @@
         <v>20330051920034</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -6112,10 +6012,10 @@
         <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -6129,10 +6029,10 @@
         <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -6143,30 +6043,30 @@
         <v>20330051920009</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920007</v>
+        <v>20330051920011</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -6174,16 +6074,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920011</v>
+        <v>20330051920012</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -6191,16 +6091,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920012</v>
+        <v>20330051920014</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -6208,16 +6108,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920014</v>
+        <v>20330051920023</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -6225,16 +6125,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920015</v>
+        <v>20330051920027</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -6242,16 +6142,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920023</v>
+        <v>20330051920036</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -6259,81 +6159,81 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920027</v>
+        <v>20330051920004</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="D30" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920028</v>
+        <v>20330051920006</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920032</v>
+        <v>20330051920007</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920036</v>
+        <v>20330051920015</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20330051920004</v>
+        <v>20330051920017</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
         <v>154</v>
@@ -6344,16 +6244,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>20330051920006</v>
+        <v>20330051920028</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -6361,16 +6261,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>20330051920017</v>
+        <v>20330051920029</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -6378,16 +6278,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>20330051920029</v>
+        <v>20330051920032</v>
       </c>
       <c r="B37" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -6400,7 +6300,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6441,10 +6341,10 @@
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -6464,10 +6364,10 @@
         <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -6487,10 +6387,10 @@
         <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -6510,10 +6410,10 @@
         <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -6527,108 +6427,108 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920009</v>
+        <v>20330051920029</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920009</v>
+        <v>20330051920029</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920029</v>
+        <v>20330051920009</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920029</v>
+        <v>20330051920011</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920007</v>
+        <v>20330051920012</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -6642,22 +6542,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20330051920011</v>
+        <v>20330051920014</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -6665,22 +6565,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>20330051920012</v>
+        <v>20330051920023</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
         <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -6688,22 +6588,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>20330051920014</v>
+        <v>20330051920027</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -6711,16 +6611,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>20330051920015</v>
+        <v>20330051920036</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -6729,121 +6629,6 @@
         <v>57</v>
       </c>
       <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>20330051920023</v>
-      </c>
-      <c r="B15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>20330051920027</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>20330051920028</v>
-      </c>
-      <c r="B17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>20330051920032</v>
-      </c>
-      <c r="B18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>20330051920036</v>
-      </c>
-      <c r="B19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19">
         <v>-1</v>
       </c>
     </row>
